--- a/项目文档/测试用例/图上作战测试样例-xt.xlsx
+++ b/项目文档/测试用例/图上作战测试样例-xt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA78601F-BC00-4200-B16B-CA7423C79E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68D40DB-73A1-4849-BDAB-791AA6DD0F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试点总览" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="150">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,10 +288,6 @@
     <t>乐观测试样例-15</t>
   </si>
   <si>
-    <t>打开图上作战挂件，点击左侧的比例尺调整地图比例尺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地图按照调整后的比例尺正确缩放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,278 +298,267 @@
     <t>乐观测试样例-16</t>
   </si>
   <si>
+    <t>地图和地图上的图层按照拖拽的方向正确移动，且地图不存在边界问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试样例-21</t>
+  </si>
+  <si>
+    <t>乐观测试样例-17</t>
+  </si>
+  <si>
+    <t>打开一个空白的图上作战挂件，加载任意数据，使得地图上显示出数据。点击左侧比例尺或者使用滚轮任意缩放地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试样例-22</t>
+  </si>
+  <si>
+    <t>乐观测试样例-18</t>
+  </si>
+  <si>
+    <t>打开图上作战挂件，待鼠标左键在地图任意位置上按下后，使用滚轮缩放地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐观测试样例-19</t>
+  </si>
+  <si>
+    <t>乐观测试样例-20</t>
+  </si>
+  <si>
+    <t>打开一个空白的图上作战挂件，点击左上角的“保存为图片”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开一个空白的图上作战挂件，点击左上方齿轮按钮加载任意数据，之后点击左上角的“保存为图片”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择框让用户选择保存位置，保存之后打开的图片与当前图上作战所看到的界面一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出选择框让用户选择保存位置，保存之后打开的图片与当前图上作战所看到的地图和地图上的图层均一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载-加载标注图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载-加载热力图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载-加载轨迹图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载-加载多边形图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载-再次加载标注图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载-再次加载热力图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载-再次加载多边形图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载-同时加载多个地图数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载-再次加载多个地图数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据清除-清除地图上的数据-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据清除-清除地图上的数据-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据清除-清除地图上的数据-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图内部功能-地图拖拽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图内部功能-地图缩放-滚轮缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图内部功能-地图拖拽-当提图上存在标记时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图内部功能-地图缩放-当提图上存在标记时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据保存-保存成图片-不加载数据时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据保存-保存成图片-加载数据时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐观测试样例-21</t>
+  </si>
+  <si>
+    <t>乐观测试样例-22</t>
+  </si>
+  <si>
+    <t>源代码模式-重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开一个空白的图上作战挂件，点击左上的“源代码”按钮，左边会出现一个可编辑的文本框，点击运行按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图按照源代码里的逻辑正确加载图层，当出现无法加载的图层时会自动弹出提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源代码模式-运行-地图上无数据时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源代码模式-运行-地图上有数据时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源代码模式-运行-地图上有数据时-切换回正常模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开一个空白的图上作战挂件，点击左上的“源代码”按钮，左边会出现一个可编辑的文本框，再次点击“源代码”按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开一个空白的图上作战挂件，点击左上的“源代码”按钮，左边会出现一个可编辑的文本框，删除左侧编辑框里的所有数据，点击运行之后再次点击重置按钮</t>
+  </si>
+  <si>
+    <t>左侧编辑栏的里数据复原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试样例-23</t>
+  </si>
+  <si>
+    <t>测试样例-24</t>
+  </si>
+  <si>
+    <t>测试样例-25</t>
+  </si>
+  <si>
+    <t>测试样例-26</t>
+  </si>
+  <si>
+    <t>测试样例-27</t>
+  </si>
+  <si>
+    <t>乐观测试样例-23</t>
+  </si>
+  <si>
+    <t>乐观测试样例-24</t>
+  </si>
+  <si>
+    <t>数据加载-加载数据时，故意不选经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载-加载数据时，故意不选纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载-加载热力图数据时，故意不选权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐观测试样例-25</t>
+  </si>
+  <si>
+    <t>持久化逻辑-正常模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持久化逻辑-源代码模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图上会清除之前加载的图层，地图按照源代码里的逻辑正确加载图层，当出现无法加载的图层时会自动弹出提示框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开一个任意的图上作战挂件，待添加完数据之后点击确定，然后再次打开图上作战挂件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开一个任意的图上作战挂件，点击左上方的按钮，切换到源代码模式，之后再次打开图上作战挂件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图上会出现上次加载过的数据，其图层、经纬度中心、缩放等级均与上次保存的数据一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑框中会出现上次保存的源代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图上正确显示热力图，当浏览器不支持加载热力图的时候会弹出提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图上正确显示四种不同的图，当浏览器不支持加载热力图的时候会弹出提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试样例-28</t>
+  </si>
+  <si>
+    <t>测试样例-29</t>
+  </si>
+  <si>
+    <t>悲观测试样例-4</t>
+  </si>
+  <si>
+    <t>数据加载-加载标注点数据时，故意选反经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开一个空白的图上作战挂件，数据选择“点标记”，在选择经纬度列的时候故意选反</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图上作战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图清除“源代码”模式下添加的图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图和地图上的图层按照调整后的比例尺正确缩放，且图层不存在偏移的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>打开一个空白的图上作战挂件，加载任意数据，使得地图上显示出数据。按住鼠标左键拖拽地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图和地图上的图层按照拖拽的方向正确移动，且地图不存在边界问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试样例-21</t>
-  </si>
-  <si>
-    <t>乐观测试样例-17</t>
-  </si>
-  <si>
-    <t>地图和地图上的图层按照调整后的比例尺正确缩放，缺图层不存在偏移的情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开一个空白的图上作战挂件，加载任意数据，使得地图上显示出数据。点击左侧比例尺或者使用滚轮任意缩放地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试样例-22</t>
-  </si>
-  <si>
-    <t>乐观测试样例-18</t>
-  </si>
-  <si>
-    <t>打开图上作战挂件，待鼠标左键在地图任意位置上按下后，使用滚轮缩放地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐观测试样例-19</t>
-  </si>
-  <si>
-    <t>乐观测试样例-20</t>
-  </si>
-  <si>
-    <t>打开一个空白的图上作战挂件，点击左上角的“保存为图片”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开一个空白的图上作战挂件，点击左上方齿轮按钮加载任意数据，之后点击左上角的“保存为图片”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择框让用户选择保存位置，保存之后打开的图片与当前图上作战所看到的界面一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出选择框让用户选择保存位置，保存之后打开的图片与当前图上作战所看到的地图和地图上的图层均一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加载-加载标注图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加载-加载热力图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加载-加载轨迹图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加载-加载多边形图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加载-再次加载标注图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加载-再次加载热力图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加载-再次加载多边形图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加载-同时加载多个地图数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加载-再次加载多个地图数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据清除-清除地图上的数据-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据清除-清除地图上的数据-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据清除-清除地图上的数据-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图内部功能-地图拖拽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图内部功能-地图缩放-点击比例尺缩放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图内部功能-地图缩放-滚轮缩放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图内部功能-地图拖拽-当提图上存在标记时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图内部功能-地图缩放-当提图上存在标记时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据保存-保存成图片-不加载数据时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据保存-保存成图片-加载数据时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐观测试样例-21</t>
-  </si>
-  <si>
-    <t>乐观测试样例-22</t>
-  </si>
-  <si>
-    <t>源代码模式-重置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开一个空白的图上作战挂件，点击左上的“源代码”按钮，左边会出现一个可编辑的文本框，点击运行按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图按照源代码里的逻辑正确加载图层，当出现无法加载的图层时会自动弹出提示框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源代码模式-运行-地图上无数据时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源代码模式-运行-地图上有数据时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源代码模式-运行-地图上有数据时-切换回正常模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开一个空白的图上作战挂件，点击左上的“源代码”按钮，左边会出现一个可编辑的文本框，再次点击“源代码”按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图清除“源代码”模式下添加的图层，并正确加载之前已经加载的图层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开一个空白的图上作战挂件，点击左上的“源代码”按钮，左边会出现一个可编辑的文本框，删除左侧编辑框里的所有数据，点击运行之后再次点击重置按钮</t>
-  </si>
-  <si>
-    <t>左侧编辑栏的里数据复原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试样例-23</t>
-  </si>
-  <si>
-    <t>测试样例-24</t>
-  </si>
-  <si>
-    <t>测试样例-25</t>
-  </si>
-  <si>
-    <t>测试样例-26</t>
-  </si>
-  <si>
-    <t>测试样例-27</t>
-  </si>
-  <si>
-    <t>乐观测试样例-23</t>
-  </si>
-  <si>
-    <t>乐观测试样例-24</t>
-  </si>
-  <si>
-    <t>数据加载-加载数据时，故意不选经度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加载-加载数据时，故意不选纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加载-加载热力图数据时，故意不选权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐观测试样例-25</t>
-  </si>
-  <si>
-    <t>持久化逻辑-正常模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐观测试样例-26</t>
-  </si>
-  <si>
-    <t>持久化逻辑-源代码模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图上会清除之前加载的图层，地图按照源代码里的逻辑正确加载图层，当出现无法加载的图层时会自动弹出提示框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开一个任意的图上作战挂件，待添加完数据之后点击确定，然后再次打开图上作战挂件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开一个任意的图上作战挂件，点击左上方的按钮，切换到源代码模式，之后再次打开图上作战挂件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图上会出现上次加载过的数据，其图层、经纬度中心、缩放等级均与上次保存的数据一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑框中会出现上次保存的源代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图上正确显示热力图，当浏览器不支持加载热力图的时候会弹出提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图上正确显示四种不同的图，当浏览器不支持加载热力图的时候会弹出提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试样例-28</t>
-  </si>
-  <si>
-    <t>测试样例-29</t>
-  </si>
-  <si>
-    <t>测试样例-30</t>
-  </si>
-  <si>
-    <t>悲观测试样例-4</t>
-  </si>
-  <si>
-    <t>数据加载-加载标注点数据时，故意选反经纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开一个空白的图上作战挂件，数据选择“点标记”，在选择经纬度列的时候故意选反</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图上作战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -992,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1012,7 +997,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1026,11 +1011,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1084,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>23</v>
@@ -1112,10 +1097,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>26</v>
@@ -1140,7 +1125,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
@@ -1168,7 +1153,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>29</v>
@@ -1196,7 +1181,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>23</v>
@@ -1223,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>27</v>
@@ -1250,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>28</v>
@@ -1276,7 +1261,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>29</v>
@@ -1303,10 +1288,10 @@
         <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>35</v>
@@ -1330,10 +1315,10 @@
         <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>37</v>
@@ -1357,7 +1342,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>69</v>
@@ -1384,7 +1369,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>40</v>
@@ -1411,7 +1396,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>40</v>
@@ -1438,7 +1423,7 @@
         <v>70</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>72</v>
@@ -1465,13 +1450,13 @@
         <v>75</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>12</v>
@@ -1484,21 +1469,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>12</v>
@@ -1516,16 +1501,16 @@
         <v>67</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>12</v>
@@ -1543,16 +1528,16 @@
         <v>73</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>12</v>
@@ -1565,21 +1550,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>12</v>
@@ -1592,21 +1577,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>12</v>
@@ -1619,21 +1604,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>12</v>
@@ -1646,21 +1631,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>12</v>
@@ -1673,21 +1658,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>12</v>
@@ -1702,19 +1687,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>12</v>
@@ -1729,19 +1714,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>12</v>
@@ -1756,19 +1741,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>12</v>
@@ -1783,19 +1768,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>12</v>
@@ -1810,19 +1795,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>12</v>
@@ -1835,21 +1820,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>65</v>
+      <c r="E30" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>12</v>
@@ -1862,32 +1847,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>12</v>
-      </c>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
@@ -1958,20 +1926,10 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D56" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D55" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/项目文档/测试用例/图上作战测试样例-xt.xlsx
+++ b/项目文档/测试用例/图上作战测试样例-xt.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="146">
   <si>
     <t>测试功能点</t>
   </si>
@@ -386,7 +386,7 @@
     <t>首选项-key</t>
   </si>
   <si>
-    <t>首选项key位置上默认为一串32位的字符串，代表一段合法的百度API KEY</t>
+    <t>首选项key位置上默认为一串32位的字符串，代表一段合法的百度API KEY。当用户输入的KEY不合法时，加载地图的时候会报错</t>
   </si>
   <si>
     <t>打开首选项，观察</t>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>打开一个空白的图上作战挂件，加载极端数据点，该数据中仅包含两个点，其中一个经纬度为0 89 另一个经纬度为180 -89</t>
+  </si>
+  <si>
+    <t>缩放比PASS。但是实测，一个在靠近北极点或者南极点的经纬度，在画图的时候容易出现点飘来飘去的情况</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,7 +483,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -494,88 +549,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -590,11 +571,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,7 +597,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,7 +605,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,43 +641,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,31 +779,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,13 +809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,85 +821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,15 +832,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -859,6 +846,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,10 +900,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -891,17 +909,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -921,166 +932,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1501,7 +1497,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1581,7 +1577,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f t="shared" ref="B3:B30" si="0">C3</f>
+        <f t="shared" ref="B3:B36" si="0">C3</f>
         <v>数据加载-加载热力图</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2339,7 +2335,7 @@
         <v>118</v>
       </c>
       <c r="B30" s="4" t="str">
-        <f>C30</f>
+        <f t="shared" si="0"/>
         <v>数据加载-加载标注点数据时，故意选反经纬度</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2362,12 +2358,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" ht="28" spans="1:9">
+    <row r="31" ht="42" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B31" s="4" t="str">
-        <f>C31</f>
+        <f t="shared" si="0"/>
         <v>首选项-key</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -2395,7 +2391,7 @@
         <v>125</v>
       </c>
       <c r="B32" s="4" t="str">
-        <f>C32</f>
+        <f t="shared" si="0"/>
         <v>首选项-经纬度-数值过滤</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2423,7 +2419,7 @@
         <v>129</v>
       </c>
       <c r="B33" s="4" t="str">
-        <f>C33</f>
+        <f t="shared" si="0"/>
         <v>首选项-缩放比</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2451,7 +2447,7 @@
         <v>133</v>
       </c>
       <c r="B34" s="4" t="str">
-        <f>C34</f>
+        <f t="shared" si="0"/>
         <v>首选项-默认值</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2479,7 +2475,7 @@
         <v>137</v>
       </c>
       <c r="B35" s="4" t="str">
-        <f>C35</f>
+        <f t="shared" si="0"/>
         <v>数据加载-自适应的缩放比-乐观</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2507,7 +2503,7 @@
         <v>141</v>
       </c>
       <c r="B36" s="4" t="str">
-        <f>C36</f>
+        <f t="shared" si="0"/>
         <v>数据加载-自适应的缩放比-悲观</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -2520,7 +2516,7 @@
         <v>144</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8" t="s">
